--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -902,31 +929,37 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +1002,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -987,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>-800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="F18" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,175 +1304,199 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>-1600</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2100</v>
       </c>
       <c r="I26" s="3">
         <v>-1500</v>
       </c>
       <c r="J26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2100</v>
       </c>
       <c r="I27" s="3">
         <v>-1500</v>
       </c>
       <c r="J27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,15 +1715,15 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2138,15 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1982,37 +2155,43 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,29 +2349,29 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2182,33 +2379,39 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2223,16 +2426,22 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,14 +2705,14 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,28 +2784,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2569,22 +2820,28 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,175 +2889,199 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1500</v>
       </c>
       <c r="N59" s="3">
         <v>1600</v>
       </c>
       <c r="O59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>7300</v>
       </c>
       <c r="L60" s="3">
         <v>6900</v>
       </c>
       <c r="M60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,19 +3124,25 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>7300</v>
       </c>
       <c r="L66" s="3">
         <v>6900</v>
       </c>
       <c r="M66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-52500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-51000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-49400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-48900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-47400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-45300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-43900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-42400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-38200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-36600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-35200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-7200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-700</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4393,27 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3980,11 +4421,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4539,31 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -4112,11 +4571,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,60 +4809,72 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4392,17 +4889,17 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +799,17 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +858,17 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +917,17 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +946,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -917,7 +958,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -926,7 +967,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -935,31 +976,40 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,23 +1058,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1032,34 +1091,43 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1176,17 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1202,70 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>-800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>1500</v>
       </c>
       <c r="Q17" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1200</v>
       </c>
       <c r="P18" s="3">
         <v>-1500</v>
       </c>
       <c r="Q18" s="3">
-        <v>-2000</v>
+        <v>-1200</v>
       </c>
       <c r="R18" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1343,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1355,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,149 +1414,176 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-1600</v>
       </c>
       <c r="J23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1472,31 +1609,40 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1691,135 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-1500</v>
       </c>
       <c r="J26" s="3">
-        <v>-2100</v>
+        <v>-1600</v>
       </c>
       <c r="K26" s="3">
-        <v>-1500</v>
+        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-1500</v>
       </c>
       <c r="M26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>-1500</v>
       </c>
       <c r="J27" s="3">
-        <v>-2100</v>
+        <v>-1600</v>
       </c>
       <c r="K27" s="3">
-        <v>-1500</v>
+        <v>-600</v>
       </c>
       <c r="L27" s="3">
         <v>-1500</v>
       </c>
       <c r="M27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1868,17 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1721,8 +1903,8 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>100</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1730,8 +1912,8 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>100</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -1745,8 +1927,17 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1986,17 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +2045,17 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +2063,117 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="G32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>-1500</v>
       </c>
       <c r="J33" s="3">
-        <v>-2100</v>
+        <v>-1600</v>
       </c>
       <c r="K33" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>-1500</v>
       </c>
       <c r="M33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-3800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2222,140 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>-1500</v>
       </c>
       <c r="J35" s="3">
-        <v>-2100</v>
+        <v>-1600</v>
       </c>
       <c r="K35" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>-1500</v>
       </c>
       <c r="M35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-3800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2374,11 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2397,11 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2158,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2167,31 +2427,40 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2509,17 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2568,17 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,38 +2627,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2379,19 +2675,28 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,29 +2704,29 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
@@ -2432,16 +2737,25 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2804,17 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2863,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2922,17 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2981,17 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +3040,17 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,17 +3070,17 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -2740,8 +3099,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3158,76 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3246,11 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3269,11 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,199 +3281,235 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1600</v>
       </c>
       <c r="Q59" s="3">
         <v>1600</v>
       </c>
       <c r="R59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>5500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,28 +3558,37 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3162,14 +3599,14 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3180,8 +3617,17 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3676,17 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3735,17 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3794,76 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3882,11 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3935,17 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3994,17 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +4053,17 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +4112,76 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-57000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-54400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-52500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-51000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-49400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-48900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-47400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-45300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-43900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-42400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-40200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-38200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-35200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4230,17 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4289,17 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4348,76 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-7200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-6700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-5400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4466,140 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>-1500</v>
       </c>
       <c r="J81" s="3">
-        <v>-2100</v>
+        <v>-1600</v>
       </c>
       <c r="K81" s="3">
-        <v>-1400</v>
+        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>-1500</v>
       </c>
       <c r="M81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-3800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4618,11 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4671,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4730,17 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4789,17 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4848,17 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4907,17 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4966,76 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +5054,11 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4409,32 +5071,32 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4445,8 +5107,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +5166,17 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +5225,17 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4556,35 +5245,35 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4595,8 +5284,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5313,11 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5366,17 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5425,17 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5484,17 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,75 +5543,93 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>700</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>900</v>
+      </c>
+      <c r="R100" s="3">
+        <v>700</v>
+      </c>
+      <c r="S100" s="3">
+        <v>400</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -4895,28 +5641,37 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,45 +5679,54 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -967,10 +981,10 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -985,31 +999,34 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,11 +1102,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1100,34 +1120,37 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
       </c>
       <c r="S17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,55 +1306,58 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1200</v>
       </c>
       <c r="R18" s="3">
         <v>-1200</v>
       </c>
       <c r="S18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,58 +1389,61 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,63 +1451,66 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1000</v>
       </c>
       <c r="R21" s="3">
         <v>-1000</v>
       </c>
       <c r="S21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1479,116 +1519,122 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>600</v>
       </c>
       <c r="N22" s="3">
         <v>600</v>
       </c>
       <c r="O22" s="3">
+        <v>600</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1600</v>
       </c>
       <c r="J23" s="3">
         <v>-1600</v>
       </c>
       <c r="K23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1603,46 +1649,49 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1712,55 +1764,58 @@
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1500</v>
       </c>
       <c r="O26" s="3">
         <v>-1500</v>
       </c>
       <c r="P26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1771,55 +1826,58 @@
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1500</v>
       </c>
       <c r="O27" s="3">
         <v>-1500</v>
       </c>
       <c r="P27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1912,12 +1973,12 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,58 +2133,61 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2125,55 +2198,58 @@
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2243,119 +2322,125 @@
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2409,31 +2496,31 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2442,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2451,7 +2538,7 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2647,8 +2746,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2660,26 +2759,26 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2690,13 +2789,16 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2704,31 +2806,31 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -2746,16 +2848,19 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3079,11 +3199,11 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3176,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -3188,19 +3314,19 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3212,22 +3338,25 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3281,46 +3412,46 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>1100</v>
       </c>
       <c r="N57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O57" s="3">
         <v>1200</v>
       </c>
       <c r="P57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
@@ -3329,95 +3460,101 @@
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4500</v>
       </c>
       <c r="P58" s="3">
         <v>4500</v>
       </c>
       <c r="Q58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1300</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
@@ -3426,90 +3563,96 @@
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1600</v>
       </c>
       <c r="T59" s="3">
         <v>1600</v>
       </c>
       <c r="U59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,13 +3710,16 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -3581,8 +3727,8 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3590,8 +3736,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3608,8 +3754,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-43900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-40200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-6800</v>
       </c>
       <c r="O76" s="3">
         <v>-6800</v>
       </c>
       <c r="P76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4551,55 +4746,58 @@
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,28 +5277,29 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5086,8 +5307,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5098,8 +5319,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,28 +5461,31 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5263,8 +5493,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -5275,8 +5505,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>700</v>
       </c>
       <c r="L100" s="3">
         <v>700</v>
       </c>
       <c r="M100" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N100" s="3">
         <v>500</v>
       </c>
       <c r="O100" s="3">
+        <v>500</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5623,17 +5872,17 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5650,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5688,45 +5940,48 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,7 +1003,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -984,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -1002,31 +1030,37 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,14 +1145,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1123,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1284,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>-800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,58 +1460,64 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-400</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,61 +1593,67 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,73 +1661,79 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
       </c>
       <c r="M23" s="3">
         <v>-1600</v>
       </c>
       <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1652,46 +1744,52 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-2100</v>
       </c>
       <c r="O26" s="3">
         <v>-1500</v>
       </c>
       <c r="P26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-2100</v>
       </c>
       <c r="O27" s="3">
         <v>-1500</v>
       </c>
       <c r="P27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +2054,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1976,15 +2098,15 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,120 +2276,132 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>400</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2499,19 +2673,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2520,37 +2694,43 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,13 +2927,19 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
@@ -2749,11 +2947,11 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2762,29 +2960,29 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -2792,51 +2990,57 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -2851,16 +3055,22 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3202,14 +3442,14 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,22 +3539,28 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -3317,22 +3569,22 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -3341,22 +3593,28 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,25 +3663,27 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
@@ -3430,229 +3692,253 @@
         <v>1000</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>1400</v>
       </c>
       <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1500</v>
       </c>
       <c r="T59" s="3">
         <v>1600</v>
       </c>
       <c r="U59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>6900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>7300</v>
       </c>
       <c r="R60" s="3">
         <v>6900</v>
       </c>
       <c r="S60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="U60" s="3">
         <v>5500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,37 +3999,43 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3757,11 +4049,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>6900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>7300</v>
       </c>
       <c r="R66" s="3">
         <v>6900</v>
       </c>
       <c r="S66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-56600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-56200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-55800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-57000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-54400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-52500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-51000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-49400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-48900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-47400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-42400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-40200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-38200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-36600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-35200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-3200</v>
       </c>
       <c r="G76" s="3">
         <v>-3600</v>
       </c>
       <c r="H76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-6800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-7200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-6700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5635,67 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-700</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5310,11 +5752,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5322,11 +5764,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5496,11 +5956,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -5508,11 +5968,11 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,75 +6284,87 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5875,19 +6373,19 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5902,17 +6400,17 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5943,45 +6447,51 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,22 +1003,23 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1018,10 +1031,10 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1036,31 +1049,34 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
-      </c>
-      <c r="W12" s="3">
-        <v>200</v>
       </c>
       <c r="X12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,11 +1170,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1169,34 +1188,37 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1311,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1200</v>
       </c>
       <c r="U17" s="3">
         <v>1200</v>
       </c>
       <c r="V17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1200</v>
       </c>
       <c r="U18" s="3">
         <v>-1200</v>
       </c>
       <c r="V18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1466,58 +1499,61 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,81 +1561,84 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-1000</v>
       </c>
       <c r="U21" s="3">
         <v>-1000</v>
       </c>
       <c r="V21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1608,135 +1647,141 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>600</v>
       </c>
       <c r="Q22" s="3">
         <v>600</v>
       </c>
       <c r="R22" s="3">
+        <v>600</v>
+      </c>
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1600</v>
       </c>
       <c r="M23" s="3">
         <v>-1600</v>
       </c>
       <c r="N23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1750,46 +1795,49 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,19 +1904,22 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
@@ -1877,66 +1928,69 @@
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1500</v>
       </c>
       <c r="R26" s="3">
         <v>-1500</v>
       </c>
       <c r="S26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
@@ -1945,55 +1999,58 @@
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1500</v>
       </c>
       <c r="R27" s="3">
         <v>-1500</v>
       </c>
       <c r="S27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2146,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -2104,11 +2164,11 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
+        <v>100</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2282,69 +2351,72 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
@@ -2353,55 +2425,58 @@
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,19 +2543,22 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
@@ -2489,128 +2567,134 @@
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,13 +2746,14 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2679,31 +2765,31 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2712,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2721,7 +2807,7 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,16 +3028,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2953,8 +3051,8 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2966,25 +3064,25 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2996,13 +3094,16 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,7 +3111,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3019,32 +3120,32 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
@@ -3061,16 +3162,19 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3448,11 +3567,11 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,7 +3679,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3563,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -3575,20 +3700,20 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
@@ -3599,22 +3724,25 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3794,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
@@ -3683,46 +3813,46 @@
         <v>1000</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
       </c>
       <c r="N57" s="3">
         <v>900</v>
       </c>
       <c r="O57" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
       <c r="Q57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R57" s="3">
         <v>1200</v>
       </c>
       <c r="S57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
@@ -3731,113 +3861,119 @@
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>4500</v>
       </c>
       <c r="S58" s="3">
         <v>4500</v>
       </c>
       <c r="T58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1300</v>
       </c>
       <c r="I59" s="3">
         <v>1300</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
@@ -3846,99 +3982,105 @@
         <v>700</v>
       </c>
       <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1600</v>
       </c>
       <c r="W59" s="3">
         <v>1600</v>
       </c>
       <c r="X59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,11 +4161,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4028,8 +4173,8 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4037,8 +4182,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-43900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-42400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-40200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-36600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-35200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-6800</v>
       </c>
       <c r="R76" s="3">
         <v>-6800</v>
       </c>
       <c r="S76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="T76" s="3">
         <v>-7200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,92 +5239,98 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
@@ -5145,55 +5339,58 @@
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5758,8 +5978,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5962,8 +6191,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -5974,8 +6203,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,75 +6544,78 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>700</v>
       </c>
       <c r="O100" s="3">
         <v>700</v>
       </c>
       <c r="P100" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q100" s="3">
         <v>500</v>
       </c>
       <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6379,16 +6627,16 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>100</v>
-      </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6406,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>-100</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6453,45 +6704,48 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1013,16 +1027,16 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1034,10 +1048,10 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1052,31 +1066,34 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>1000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
-      </c>
-      <c r="X12" s="3">
-        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,11 +1193,11 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1191,34 +1211,37 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3">
-        <v>100</v>
-      </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1200</v>
       </c>
       <c r="V17" s="3">
         <v>1200</v>
       </c>
       <c r="W17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1422,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1200</v>
       </c>
       <c r="V18" s="3">
         <v>-1200</v>
       </c>
       <c r="W18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1502,58 +1536,61 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
+        <v>200</v>
+      </c>
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1598,73 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-1000</v>
       </c>
       <c r="V21" s="3">
         <v>-1000</v>
       </c>
       <c r="W21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,16 +1672,16 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1650,141 +1690,147 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>600</v>
       </c>
       <c r="R22" s="3">
         <v>600</v>
       </c>
       <c r="S22" s="3">
+        <v>600</v>
+      </c>
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1600</v>
       </c>
       <c r="N23" s="3">
         <v>-1600</v>
       </c>
       <c r="O23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1798,46 +1844,49 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,22 +1956,25 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
@@ -1931,69 +1983,72 @@
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1500</v>
       </c>
       <c r="S26" s="3">
         <v>-1500</v>
       </c>
       <c r="T26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
@@ -2002,55 +2057,58 @@
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1500</v>
       </c>
       <c r="S27" s="3">
         <v>-1500</v>
       </c>
       <c r="T27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2149,8 +2210,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2167,11 +2228,11 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
+        <v>100</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,11 +2412,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2354,72 +2424,75 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
@@ -2428,55 +2501,58 @@
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,22 +2622,25 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
@@ -2570,131 +2649,137 @@
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2756,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2768,31 +2855,31 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2801,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2810,7 +2897,7 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3042,8 +3141,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -3054,8 +3153,8 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3067,25 +3166,25 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3097,13 +3196,16 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3114,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3123,32 +3225,32 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
@@ -3165,16 +3267,19 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3570,11 +3690,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,19 +3793,22 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -3691,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -3703,20 +3829,20 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
@@ -3727,22 +3853,25 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,19 +3925,20 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
@@ -3816,46 +3947,46 @@
         <v>1000</v>
       </c>
       <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>900</v>
       </c>
       <c r="O57" s="3">
         <v>900</v>
       </c>
       <c r="P57" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
       <c r="R57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S57" s="3">
         <v>1200</v>
       </c>
       <c r="T57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
@@ -3864,119 +3995,125 @@
         <v>500</v>
       </c>
       <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4500</v>
       </c>
       <c r="T58" s="3">
         <v>4500</v>
       </c>
       <c r="U58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
@@ -3985,102 +4122,108 @@
         <v>700</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1600</v>
       </c>
       <c r="X59" s="3">
         <v>1600</v>
       </c>
       <c r="Y59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,34 +4293,37 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4185,8 +4331,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-58200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-51000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-43900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-42400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-40200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-6800</v>
       </c>
       <c r="S76" s="3">
         <v>-6800</v>
       </c>
       <c r="T76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="U76" s="3">
         <v>-7200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,98 +5431,104 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
@@ -5342,55 +5537,58 @@
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5981,8 +6202,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5993,8 +6214,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6194,8 +6424,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -6206,8 +6436,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,90 +6778,96 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
       </c>
       <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>700</v>
       </c>
       <c r="P100" s="3">
         <v>700</v>
       </c>
       <c r="Q100" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R100" s="3">
         <v>500</v>
       </c>
       <c r="S100" s="3">
+        <v>500</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -6630,16 +6879,16 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -6657,13 +6906,13 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>-100</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6677,13 +6926,16 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6707,45 +6959,48 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1030,16 +1044,16 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1051,10 +1065,10 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1069,31 +1083,34 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
-        <v>100</v>
-      </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>1000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>200</v>
       </c>
       <c r="Z12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,11 +1216,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1214,34 +1234,37 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1365,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1200</v>
       </c>
       <c r="W17" s="3">
         <v>1200</v>
       </c>
       <c r="X17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,73 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1200</v>
       </c>
       <c r="W18" s="3">
         <v>-1200</v>
       </c>
       <c r="X18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,13 +1558,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1539,58 +1573,61 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
       <c r="X20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,93 +1635,96 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-1000</v>
       </c>
       <c r="W21" s="3">
         <v>-1000</v>
       </c>
       <c r="X21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1693,126 +1733,132 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>600</v>
       </c>
       <c r="S22" s="3">
         <v>600</v>
       </c>
       <c r="T22" s="3">
+        <v>600</v>
+      </c>
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1600</v>
       </c>
       <c r="O23" s="3">
         <v>-1600</v>
       </c>
       <c r="P23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,20 +1866,20 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1847,46 +1893,49 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,25 +2008,28 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
@@ -1986,72 +2038,75 @@
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1500</v>
       </c>
       <c r="T26" s="3">
         <v>-1500</v>
       </c>
       <c r="U26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
@@ -2060,55 +2115,58 @@
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1500</v>
       </c>
       <c r="T27" s="3">
         <v>-1500</v>
       </c>
       <c r="U27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2213,8 +2274,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2231,11 +2292,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
+        <v>100</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,14 +2482,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2427,75 +2497,78 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
       <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
@@ -2504,55 +2577,58 @@
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,25 +2701,28 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
@@ -2652,134 +2731,140 @@
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,19 +2920,20 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2858,31 +2945,31 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2891,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -2900,7 +2987,7 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3144,8 +3243,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -3156,8 +3255,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3169,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3199,18 +3298,21 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3219,7 +3321,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3228,32 +3330,32 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
@@ -3270,16 +3372,19 @@
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,13 +3457,16 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3693,11 +3813,11 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,22 +3919,25 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3820,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -3832,20 +3958,20 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
@@ -3856,22 +3982,25 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,22 +4056,23 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
@@ -3950,46 +4081,46 @@
         <v>1000</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>900</v>
       </c>
       <c r="P57" s="3">
         <v>900</v>
       </c>
       <c r="Q57" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>1100</v>
       </c>
       <c r="S57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T57" s="3">
         <v>1200</v>
       </c>
       <c r="U57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
@@ -3998,125 +4129,131 @@
         <v>500</v>
       </c>
       <c r="Z57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>4500</v>
       </c>
       <c r="U58" s="3">
         <v>4500</v>
       </c>
       <c r="V58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W58" s="3">
         <v>4700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1300</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
       </c>
       <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
@@ -4125,31 +4262,34 @@
         <v>700</v>
       </c>
       <c r="S59" s="3">
+        <v>700</v>
+      </c>
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1600</v>
       </c>
       <c r="Y59" s="3">
         <v>1600</v>
       </c>
       <c r="Z59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,73 +4297,76 @@
         <v>3100</v>
       </c>
       <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,37 +4439,40 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4334,8 +4480,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,73 +4759,76 @@
         <v>3100</v>
       </c>
       <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-58900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-58200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-57000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-51000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-49400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-43900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-42400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-40200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-38200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-36600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-35200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5295,73 +5481,76 @@
         <v>-3000</v>
       </c>
       <c r="E76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-6800</v>
       </c>
       <c r="T76" s="3">
         <v>-6800</v>
       </c>
       <c r="U76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="V76" s="3">
         <v>-7200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,104 +5623,110 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
@@ -5540,55 +5735,58 @@
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6205,8 +6426,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -6217,8 +6438,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6427,8 +6657,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -6439,8 +6669,8 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,96 +7024,102 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>400</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
+        <v>400</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>700</v>
       </c>
       <c r="Q100" s="3">
         <v>700</v>
       </c>
       <c r="R100" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="S100" s="3">
         <v>500</v>
       </c>
       <c r="T100" s="3">
+        <v>500</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -6882,16 +7131,16 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>100</v>
-      </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6909,13 +7158,13 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>-100</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6929,16 +7178,19 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6962,45 +7214,48 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +856,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1074,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1059,7 +1086,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -1068,13 +1095,13 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1086,31 +1113,37 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
-        <v>100</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
         <v>1000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,14 +1258,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1237,20 +1276,20 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>100</v>
       </c>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1417,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,76 +1428,82 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>800</v>
+      </c>
+      <c r="U17" s="3">
         <v>-800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1511,82 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-500</v>
       </c>
       <c r="R18" s="3">
         <v>-800</v>
       </c>
       <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,76 +1625,82 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-400</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1708,82 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
       </c>
       <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,81 +1794,87 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F23" s="3">
         <v>-900</v>
@@ -1798,94 +1883,100 @@
         <v>-500</v>
       </c>
       <c r="H23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-600</v>
       </c>
       <c r="R23" s="3">
         <v>-1600</v>
       </c>
       <c r="S23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1896,46 +1987,52 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-300</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,19 +2108,25 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-800</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
@@ -2032,75 +2135,81 @@
         <v>-800</v>
       </c>
       <c r="I26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-2100</v>
       </c>
       <c r="T26" s="3">
         <v>-1500</v>
       </c>
       <c r="U26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-800</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
@@ -2109,64 +2218,70 @@
         <v>-800</v>
       </c>
       <c r="I27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-2100</v>
       </c>
       <c r="T27" s="3">
         <v>-1500</v>
       </c>
       <c r="U27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,11 +2398,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -2295,14 +2416,14 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
-        <v>100</v>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
+      <c r="V29" s="3">
+        <v>100</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,87 +2621,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>400</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-800</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
@@ -2571,64 +2716,70 @@
         <v>-800</v>
       </c>
       <c r="I33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,19 +2855,25 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-800</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
@@ -2725,146 +2882,158 @@
         <v>-800</v>
       </c>
       <c r="I35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3092,10 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2948,19 +3121,19 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2969,37 +3142,43 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3246,11 +3443,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3258,11 +3455,11 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3271,28 +3468,28 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3301,67 +3498,73 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
@@ -3375,16 +3578,22 @@
         <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
       </c>
       <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,10 +3684,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3816,14 +4055,14 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4167,14 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,28 +4182,28 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3961,23 +4212,23 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
@@ -3985,22 +4236,28 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
         <v>100</v>
       </c>
       <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,40 +4316,42 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
       </c>
       <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
@@ -4099,125 +4360,137 @@
         <v>1000</v>
       </c>
       <c r="P57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
-      </c>
-      <c r="X57" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>500</v>
       </c>
       <c r="Z57" s="3">
         <v>500</v>
       </c>
       <c r="AA57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -4226,147 +4499,159 @@
         <v>1100</v>
       </c>
       <c r="G59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>1400</v>
       </c>
       <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
       <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1500</v>
       </c>
       <c r="Y59" s="3">
         <v>1600</v>
       </c>
       <c r="Z59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>6900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>7300</v>
       </c>
       <c r="W60" s="3">
         <v>6900</v>
       </c>
       <c r="X60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Z60" s="3">
         <v>5500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,19 +4727,25 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4462,8 +4753,8 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4477,17 +4768,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4501,11 +4792,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>6900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>7300</v>
       </c>
       <c r="W66" s="3">
         <v>6900</v>
       </c>
       <c r="X66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Z66" s="3">
         <v>5500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-61600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-60400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-59700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-58900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-58200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-57000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-56600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-56200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-55800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-57000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-52500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-49400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-48900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-47400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-45300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-43900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-42400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-40200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-38200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-36600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-35200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3200</v>
       </c>
       <c r="L76" s="3">
         <v>-3600</v>
       </c>
       <c r="M76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="O76" s="3">
         <v>-4900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-6800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-7200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-6700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,101 +6003,113 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-800</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
@@ -5729,64 +6118,70 @@
         <v>-800</v>
       </c>
       <c r="I81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,22 +6703,28 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -6300,61 +6733,67 @@
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-700</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6429,11 +6870,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6441,11 +6882,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6660,11 +7119,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
@@ -6672,11 +7131,11 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,90 +7512,102 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -7119,13 +7616,13 @@
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -7134,19 +7631,19 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -7161,17 +7658,17 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
@@ -7181,22 +7678,28 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -7217,45 +7720,51 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1080,16 +1094,16 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1101,10 +1115,10 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1119,31 +1133,34 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
-        <v>100</v>
-      </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>400</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>200</v>
       </c>
       <c r="AC12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,11 +1284,11 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1282,34 +1302,37 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3">
-        <v>100</v>
-      </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,13 +1445,14 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
@@ -1434,76 +1461,79 @@
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1200</v>
       </c>
       <c r="Z17" s="3">
         <v>1200</v>
       </c>
       <c r="AA17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1517,76 +1547,79 @@
         <v>-600</v>
       </c>
       <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-1200</v>
       </c>
       <c r="Z18" s="3">
         <v>-1200</v>
       </c>
       <c r="AA18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1625,22 +1659,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1649,58 +1683,61 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>200</v>
       </c>
       <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1711,108 +1748,111 @@
         <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-1000</v>
       </c>
       <c r="Z21" s="3">
         <v>-1000</v>
       </c>
       <c r="AA21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1821,144 +1861,150 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
-      </c>
-      <c r="U22" s="3">
-        <v>600</v>
       </c>
       <c r="V22" s="3">
         <v>600</v>
       </c>
       <c r="W22" s="3">
+        <v>600</v>
+      </c>
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-600</v>
       </c>
       <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1600</v>
       </c>
       <c r="R23" s="3">
         <v>-1600</v>
       </c>
       <c r="S23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1966,20 +2012,20 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1993,46 +2039,49 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-300</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,34 +2163,37 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
@@ -2150,81 +2202,84 @@
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-1500</v>
       </c>
       <c r="W26" s="3">
         <v>-1500</v>
       </c>
       <c r="X26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
@@ -2233,55 +2288,58 @@
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-1500</v>
       </c>
       <c r="W27" s="3">
         <v>-1500</v>
       </c>
       <c r="X27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2404,8 +2465,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -2422,11 +2483,11 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
-        <v>100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
+        <v>100</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2621,23 +2691,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2645,84 +2715,87 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>400</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-200</v>
       </c>
       <c r="AA32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
@@ -2731,55 +2804,58 @@
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,34 +2937,37 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
@@ -2897,143 +2976,149 @@
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,13 +3180,14 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3109,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3127,31 +3214,31 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -3160,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
@@ -3169,7 +3256,7 @@
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -3177,8 +3264,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3449,8 +3548,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -3461,8 +3560,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3474,25 +3573,25 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3504,13 +3603,16 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3518,13 +3620,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3533,7 +3635,7 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3542,32 +3644,32 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
@@ -3584,16 +3686,19 @@
         <v>100</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,13 +3780,16 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3690,7 +3798,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4061,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4296,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4188,16 +4314,16 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -4206,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -4218,20 +4344,20 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
@@ -4242,22 +4368,25 @@
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
       <c r="AA54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4327,22 +4458,22 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
@@ -4351,46 +4482,46 @@
         <v>1000</v>
       </c>
       <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>900</v>
       </c>
       <c r="S57" s="3">
         <v>900</v>
       </c>
       <c r="T57" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="U57" s="3">
         <v>1100</v>
       </c>
       <c r="V57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="W57" s="3">
         <v>1200</v>
       </c>
       <c r="X57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>500</v>
       </c>
       <c r="AA57" s="3">
         <v>500</v>
@@ -4399,143 +4530,149 @@
         <v>500</v>
       </c>
       <c r="AC57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4800</v>
-      </c>
-      <c r="W58" s="3">
-        <v>4500</v>
       </c>
       <c r="X58" s="3">
         <v>4500</v>
       </c>
       <c r="Y58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>4700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
@@ -4544,114 +4681,120 @@
         <v>700</v>
       </c>
       <c r="V59" s="3">
+        <v>700</v>
+      </c>
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1500</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>1600</v>
       </c>
       <c r="AB59" s="3">
         <v>1600</v>
       </c>
       <c r="AC59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3100</v>
       </c>
       <c r="G60" s="3">
         <v>3100</v>
       </c>
       <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4747,8 +4893,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4759,20 +4905,20 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4780,8 +4926,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4798,8 +4944,8 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3100</v>
       </c>
       <c r="G66" s="3">
         <v>3100</v>
       </c>
       <c r="H66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-61600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-49400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-48900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-47400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-45300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-43900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-42400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-38200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-36600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-35200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,8 +6026,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5852,82 +6038,85 @@
         <v>-2900</v>
       </c>
       <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-3000</v>
       </c>
       <c r="G76" s="3">
         <v>-3000</v>
       </c>
       <c r="H76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5600</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-6800</v>
       </c>
       <c r="W76" s="3">
         <v>-6800</v>
       </c>
       <c r="X76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,122 +6198,128 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
@@ -6133,55 +6328,58 @@
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6718,82 +6935,85 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-400</v>
       </c>
       <c r="V89" s="3">
         <v>-400</v>
       </c>
       <c r="W89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6876,8 +7097,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -6888,8 +7109,8 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7125,8 +7355,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
@@ -7137,8 +7367,8 @@
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,82 +7773,85 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>700</v>
       </c>
       <c r="T100" s="3">
         <v>700</v>
       </c>
       <c r="U100" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="V100" s="3">
         <v>500</v>
       </c>
       <c r="W100" s="3">
+        <v>500</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7613,19 +7862,19 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -7637,16 +7886,16 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>100</v>
-      </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -7664,13 +7913,13 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>-100</v>
       </c>
       <c r="Y101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7684,25 +7933,28 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -7726,45 +7978,48 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -2171,8 +2171,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -2257,14 +2257,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-600</v>
+        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
@@ -2773,14 +2773,14 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-600</v>
+        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
@@ -2945,14 +2945,14 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-600</v>
+        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
@@ -4541,7 +4541,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
@@ -6297,14 +6297,14 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-600</v>
+        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>

--- a/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PPCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>PPCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +877,14 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +969,14 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,16 +1099,18 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1097,7 +1125,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1109,7 +1137,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1118,13 +1146,13 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1136,31 +1164,37 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AF12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,14 +1327,14 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1305,20 +1345,20 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-1200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>100</v>
       </c>
@@ -1331,8 +1371,14 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1498,10 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,85 +1509,91 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
       </c>
       <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
+        <v>800</v>
+      </c>
+      <c r="X17" s="3">
         <v>-800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,85 +1601,91 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
       </c>
       <c r="U18" s="3">
         <v>-800</v>
       </c>
       <c r="V18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1716,10 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,85 +1727,91 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>-400</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,85 +1819,91 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1843,90 +1923,96 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>1300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AF22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-900</v>
@@ -1935,67 +2021,73 @@
         <v>-500</v>
       </c>
       <c r="K23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-600</v>
       </c>
       <c r="U23" s="3">
         <v>-1600</v>
       </c>
       <c r="V23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,35 +2095,35 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -2042,46 +2134,52 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-300</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,28 +2264,34 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-800</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
@@ -2196,84 +2300,90 @@
         <v>-800</v>
       </c>
       <c r="L26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M26" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-2100</v>
       </c>
       <c r="W26" s="3">
         <v>-1500</v>
       </c>
       <c r="X26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-800</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
@@ -2282,64 +2392,70 @@
         <v>-800</v>
       </c>
       <c r="L27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M27" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-2100</v>
       </c>
       <c r="W27" s="3">
         <v>-1500</v>
       </c>
       <c r="X27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2468,11 +2590,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
@@ -2486,14 +2608,14 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
-        <v>100</v>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
+      <c r="Y29" s="3">
+        <v>100</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2816,14 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,105 +2831,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>400</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-800</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
@@ -2798,64 +2944,70 @@
         <v>-800</v>
       </c>
       <c r="L33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M33" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,28 +3092,34 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-800</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
@@ -2970,155 +3128,167 @@
         <v>-800</v>
       </c>
       <c r="L35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M35" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,34 +3353,36 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3217,19 +3391,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3238,37 +3412,43 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3533,14 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3625,14 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3717,14 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3551,11 +3749,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -3563,11 +3761,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3576,28 +3774,28 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3606,13 +3804,19 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,62 +3824,62 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
@@ -3689,16 +3893,22 @@
         <v>100</v>
       </c>
       <c r="AB46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC46" s="3">
         <v>100</v>
       </c>
       <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3993,14 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,19 +4008,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3869,8 +4085,14 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4177,14 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4361,14 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4184,14 +4424,14 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,13 +4545,19 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -4317,28 +4569,28 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -4347,23 +4599,23 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
@@ -4371,22 +4623,28 @@
         <v>100</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
       <c r="AC54" s="3">
         <v>100</v>
       </c>
       <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,49 +4709,51 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
       </c>
       <c r="M57" s="3">
         <v>1000</v>
       </c>
       <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1000</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
@@ -4500,143 +4762,155 @@
         <v>1000</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>500</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>500</v>
       </c>
       <c r="AC57" s="3">
         <v>500</v>
       </c>
       <c r="AD57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>3500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>2700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>1900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AF58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1100</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
@@ -4645,70 +4919,76 @@
         <v>1100</v>
       </c>
       <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1100</v>
       </c>
       <c r="M59" s="3">
         <v>1400</v>
       </c>
       <c r="N59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>700</v>
       </c>
       <c r="V59" s="3">
         <v>700</v>
       </c>
       <c r="W59" s="3">
+        <v>700</v>
+      </c>
+      <c r="X59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>1500</v>
       </c>
       <c r="AB59" s="3">
         <v>1600</v>
       </c>
       <c r="AC59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AF59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,85 +4996,91 @@
         <v>3100</v>
       </c>
       <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>6900</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>7300</v>
       </c>
       <c r="Z60" s="3">
         <v>6900</v>
       </c>
       <c r="AA60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="AC60" s="3">
         <v>5500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>4800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>4000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5165,14 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4896,11 +5188,11 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4908,8 +5200,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4923,17 +5215,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4947,11 +5239,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6800</v>
-      </c>
-      <c r="X66" s="3">
-        <v>6900</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>7300</v>
       </c>
       <c r="Z66" s="3">
         <v>6900</v>
       </c>
       <c r="AA66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="AC66" s="3">
         <v>5500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>4800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-63900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-62600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-61600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-60400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-59700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-58900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-58200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-57000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-56600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-56200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-55800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-54400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-52500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-51000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-49400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-48900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-47400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-45300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-43900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-42400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-38200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-36600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-35200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3200</v>
       </c>
       <c r="O76" s="3">
         <v>-3600</v>
       </c>
       <c r="P76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="R76" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-6800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,119 +6579,131 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-800</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
@@ -6322,64 +6712,70 @@
         <v>-800</v>
       </c>
       <c r="L81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="M81" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6806,10 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6894,14 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,31 +7354,37 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -6959,61 +7393,67 @@
         <v>-500</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-700</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7484,10 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7100,11 +7542,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -7112,11 +7554,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7130,8 +7572,14 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7756,14 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7358,11 +7818,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
@@ -7370,11 +7830,11 @@
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7388,8 +7848,14 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8250,106 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7865,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -7874,13 +8372,13 @@
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7889,19 +8387,19 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>100</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -7916,17 +8414,17 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
@@ -7936,31 +8434,37 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7981,45 +8485,51 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
